--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_412__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_412__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,40 +6118,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>39.37004470825195</c:v>
+                  <c:v>39.36995315551758</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>91.49010467529297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.38180160522461</c:v>
+                  <c:v>36.38179016113281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.561864614486694</c:v>
+                  <c:v>2.561870574951172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.40950012207031</c:v>
+                  <c:v>93.40949249267578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.92606353759766</c:v>
+                  <c:v>73.92604827880859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.2504501342773</c:v>
+                  <c:v>105.2504348754883</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.10368025302887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.432135581970215</c:v>
+                  <c:v>4.432159423828125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.18752670288086</c:v>
+                  <c:v>60.18749237060547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.86973190307617</c:v>
+                  <c:v>49.86974334716797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.46733093261719</c:v>
+                  <c:v>94.46733856201172</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.721522569656372</c:v>
@@ -6160,43 +6160,43 @@
                   <c:v>93.54753112792969</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.7995390892028809</c:v>
+                  <c:v>-0.7995038032531738</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.581198930740356</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.414570927619934</c:v>
+                  <c:v>1.414547443389893</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.22589874267578</c:v>
+                  <c:v>94.22590637207031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.14805603027344</c:v>
+                  <c:v>56.14805221557617</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.270637512207031</c:v>
+                  <c:v>3.270602226257324</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>91.67678833007812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.91800689697266</c:v>
+                  <c:v>97.91801452636719</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>95.78795623779297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93.94554138183594</c:v>
+                  <c:v>93.94553375244141</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.84749794006348</c:v>
+                  <c:v>14.84747695922852</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>88.65953063964844</c:v>
+                  <c:v>88.65952301025391</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.46562957763672</c:v>
+                  <c:v>79.46562194824219</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>73.74419403076172</c:v>
@@ -6205,19 +6205,19 @@
                   <c:v>4.419765472412109</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.11854553222656</c:v>
+                  <c:v>30.11853218078613</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.59259605407715</c:v>
+                  <c:v>18.59263229370117</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.761808156967163</c:v>
+                  <c:v>1.761837482452393</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.9639034867286682</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.6307063698768616</c:v>
+                  <c:v>-0.6306828260421753</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1.009280681610107</c:v>
@@ -6226,19 +6226,19 @@
                   <c:v>94.29885864257812</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>71.17217254638672</c:v>
+                  <c:v>71.17216491699219</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.8780878186225891</c:v>
+                  <c:v>-0.8781348466873169</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.842652797698975</c:v>
+                  <c:v>2.842676401138306</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>95.61991119384766</c:v>
+                  <c:v>95.61990356445312</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46.96502304077148</c:v>
+                  <c:v>46.96506881713867</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>93.36328887939453</c:v>
@@ -6247,28 +6247,28 @@
                   <c:v>-0.4340052604675293</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49.93334197998047</c:v>
+                  <c:v>49.93344116210938</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.494930505752563</c:v>
+                  <c:v>1.494954109191895</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.312833905220032</c:v>
+                  <c:v>-1.312904477119446</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.549403190612793</c:v>
+                  <c:v>-1.549409031867981</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>95.63292694091797</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.4163141548633575</c:v>
+                  <c:v>-0.4163082838058472</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>96.60531616210938</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.050442695617676</c:v>
+                  <c:v>9.050424575805664</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>64.43394470214844</c:v>
@@ -6277,13 +6277,13 @@
                   <c:v>82.75730895996094</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.567664623260498</c:v>
+                  <c:v>3.567670583724976</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>60.9215202331543</c:v>
+                  <c:v>60.9214973449707</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>91.20762634277344</c:v>
+                  <c:v>91.20761108398438</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>86.90920257568359</c:v>
@@ -6292,16 +6292,16 @@
                   <c:v>-1.253987073898315</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.173551082611084</c:v>
+                  <c:v>3.173539400100708</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>89.90459442138672</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.597079157829285</c:v>
+                  <c:v>-1.597067475318909</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.7386638522148132</c:v>
+                  <c:v>0.7386990785598755</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>95.73483276367188</c:v>
@@ -6313,31 +6313,31 @@
                   <c:v>93.37306976318359</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.31445980072021</c:v>
+                  <c:v>14.31444835662842</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.472180187702179</c:v>
+                  <c:v>0.4722037017345428</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.460397958755493</c:v>
+                  <c:v>2.460421562194824</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>73.14708709716797</c:v>
+                  <c:v>73.14707946777344</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>83.97567749023438</c:v>
+                  <c:v>83.97568511962891</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>100.9326858520508</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>87.95523071289062</c:v>
+                  <c:v>87.95523834228516</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>92.96013641357422</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.1573502868413925</c:v>
+                  <c:v>-0.1573620438575745</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>93.23583221435547</c:v>
@@ -6355,13 +6355,13 @@
                   <c:v>91.52412414550781</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>99.05007171630859</c:v>
+                  <c:v>99.05005645751953</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>56.25084686279297</c:v>
+                  <c:v>56.25086975097656</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.9494636654853821</c:v>
+                  <c:v>-0.9494401812553406</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-1.828574538230896</c:v>
@@ -6376,31 +6376,31 @@
                   <c:v>91.57963562011719</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.09096013754606247</c:v>
+                  <c:v>0.0909542590379715</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9909722208976746</c:v>
+                  <c:v>0.9909663796424866</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.755741119384766</c:v>
+                  <c:v>9.755746841430664</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>92.27278137207031</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90.63642883300781</c:v>
+                  <c:v>90.63643646240234</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.585549831390381</c:v>
+                  <c:v>3.585573196411133</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>31.21290588378906</c:v>
+                  <c:v>31.21291160583496</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93.52743530273438</c:v>
+                  <c:v>93.52745056152344</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>60.35419464111328</c:v>
+                  <c:v>60.35417938232422</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>51.51045608520508</c:v>
@@ -6418,10 +6418,10 @@
                   <c:v>90.62240600585938</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.732905030250549</c:v>
+                  <c:v>1.732881426811218</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.158717632293701</c:v>
+                  <c:v>5.158699989318848</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>80.53273773193359</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.37004470825195</v>
+        <v>39.36995315551758</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.38180160522461</v>
+        <v>36.38179016113281</v>
       </c>
       <c r="G4">
         <v>158</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.561864614486694</v>
+        <v>2.561870574951172</v>
       </c>
       <c r="G5">
         <v>158</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>93.40950012207031</v>
+        <v>93.40949249267578</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>73.92606353759766</v>
+        <v>73.92604827880859</v>
       </c>
       <c r="G7">
         <v>158</v>
@@ -7311,7 +7311,7 @@
         <v>98.1893</v>
       </c>
       <c r="F8">
-        <v>105.2504501342773</v>
+        <v>105.2504348754883</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>4.432135581970215</v>
+        <v>4.432159423828125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>60.18752670288086</v>
+        <v>60.18749237060547</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>49.86973190307617</v>
+        <v>49.86974334716797</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>94.46733093261719</v>
+        <v>94.46733856201172</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>-0.7995390892028809</v>
+        <v>-0.7995038032531738</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.414570927619934</v>
+        <v>1.414547443389893</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>94.22589874267578</v>
+        <v>94.22590637207031</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>56.14805603027344</v>
+        <v>56.14805221557617</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.270637512207031</v>
+        <v>3.270602226257324</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>97.91800689697266</v>
+        <v>97.91801452636719</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>93.94554138183594</v>
+        <v>93.94553375244141</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>14.84749794006348</v>
+        <v>14.84747695922852</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>88.65953063964844</v>
+        <v>88.65952301025391</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>79.46562957763672</v>
+        <v>79.46562194824219</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>30.11854553222656</v>
+        <v>30.11853218078613</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>18.59259605407715</v>
+        <v>18.59263229370117</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.761808156967163</v>
+        <v>1.761837482452393</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.6307063698768616</v>
+        <v>-0.6306828260421753</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>71.17217254638672</v>
+        <v>71.17216491699219</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.8780878186225891</v>
+        <v>-0.8781348466873169</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2.842652797698975</v>
+        <v>2.842676401138306</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>81.7872</v>
       </c>
       <c r="F41">
-        <v>95.61991119384766</v>
+        <v>95.61990356445312</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>46.96502304077148</v>
+        <v>46.96506881713867</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>49.93334197998047</v>
+        <v>49.93344116210938</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.494930505752563</v>
+        <v>1.494954109191895</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.312833905220032</v>
+        <v>-1.312904477119446</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-1.549403190612793</v>
+        <v>-1.549409031867981</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.4163141548633575</v>
+        <v>-0.4163082838058472</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>9.050442695617676</v>
+        <v>9.050424575805664</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>3.567664623260498</v>
+        <v>3.567670583724976</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>60.9215202331543</v>
+        <v>60.9214973449707</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>91.20762634277344</v>
+        <v>91.20761108398438</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>3.173551082611084</v>
+        <v>3.173539400100708</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.597079157829285</v>
+        <v>-1.597067475318909</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.7386638522148132</v>
+        <v>0.7386990785598755</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>14.31445980072021</v>
+        <v>14.31444835662842</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.472180187702179</v>
+        <v>0.4722037017345428</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>2.460397958755493</v>
+        <v>2.460421562194824</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>73.14708709716797</v>
+        <v>73.14707946777344</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>83.97567749023438</v>
+        <v>83.97568511962891</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>87.95523071289062</v>
+        <v>87.95523834228516</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.1573502868413925</v>
+        <v>-0.1573620438575745</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>99.05007171630859</v>
+        <v>99.05005645751953</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>56.25084686279297</v>
+        <v>56.25086975097656</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.9494636654853821</v>
+        <v>-0.9494401812553406</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.09096013754606247</v>
+        <v>0.0909542590379715</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.9909722208976746</v>
+        <v>0.9909663796424866</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>9.755741119384766</v>
+        <v>9.755746841430664</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>90.63642883300781</v>
+        <v>90.63643646240234</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>3.585549831390381</v>
+        <v>3.585573196411133</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>31.21290588378906</v>
+        <v>31.21291160583496</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>93.52743530273438</v>
+        <v>93.52745056152344</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>60.35419464111328</v>
+        <v>60.35417938232422</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.732905030250549</v>
+        <v>1.732881426811218</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5.158717632293701</v>
+        <v>5.158699989318848</v>
       </c>
     </row>
     <row r="104" spans="1:6">
